--- a/Modelos/Fisico.xlsx
+++ b/Modelos/Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick.h.apaza.conde\Desktop\senai_spmedgroup_sprint1_bd_tarde_Erick_Henry\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74CF711-C546-42CE-A800-9A4EA6805464}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CD961-799D-4D78-81BC-2E30C2657DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A381B6E6-FA3E-4C5E-8549-DEAF7D5831EC}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Fisico" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>IdClínicas</t>
   </si>
@@ -472,6 +471,63 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -479,63 +535,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2974E9AF-ADBC-4356-A175-C53CDC9CB039}">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,20 +868,20 @@
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.36328125" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -913,13 +912,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -999,14 +998,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1069,10 +1068,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1089,13 +1088,13 @@
       <c r="B20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
@@ -1227,15 +1226,15 @@
       <c r="B27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -1361,7 +1360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>14</v>
       </c>
@@ -1369,24 +1368,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>15</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="H34" s="33" t="s">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="I34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>16</v>
       </c>
@@ -1402,14 +1402,17 @@
       <c r="F35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="G35" s="11" t="s">
         <v>46</v>
       </c>
       <c r="I35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>17</v>
       </c>
@@ -1425,14 +1428,17 @@
       <c r="F36" s="11">
         <v>13570753</v>
       </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="7" t="s">
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D37" s="11">
         <v>2</v>
       </c>
@@ -1442,14 +1448,17 @@
       <c r="F37" s="11">
         <v>75310135</v>
       </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7" t="s">
+      <c r="G37" s="11">
+        <v>3</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D38" s="11">
         <v>3</v>
       </c>
@@ -1459,14 +1468,17 @@
       <c r="F38" s="11">
         <v>10293847</v>
       </c>
-      <c r="H38" s="7">
+      <c r="G38" s="11">
         <v>3</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="7">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D39" s="11">
         <v>4</v>
       </c>
@@ -1476,8 +1488,11 @@
       <c r="F39" s="11">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G39" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D40" s="11">
         <v>5</v>
       </c>
@@ -1487,17 +1502,20 @@
       <c r="F40" s="11">
         <v>87654321</v>
       </c>
+      <c r="G40" s="11">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E39" r:id="rId1" xr:uid="{F66AC4BA-3787-422D-9FC5-2109AB17B6F0}"/>
